--- a/dd.xlsx
+++ b/dd.xlsx
@@ -501,25 +501,25 @@
         <v>44524.375</v>
       </c>
       <c r="B2" t="n">
-        <v>71726000</v>
+        <v>6675</v>
       </c>
       <c r="C2" t="n">
-        <v>72300000</v>
+        <v>9970</v>
       </c>
       <c r="D2" t="n">
-        <v>70265000</v>
+        <v>6540</v>
       </c>
       <c r="E2" t="n">
-        <v>71680000</v>
+        <v>9370</v>
       </c>
       <c r="F2" t="n">
-        <v>6609.91155089</v>
+        <v>352356731.0719248</v>
       </c>
       <c r="G2" t="n">
-        <v>468511820298.0944</v>
+        <v>3018966463664.599</v>
       </c>
       <c r="H2" t="n">
-        <v>1017500</v>
+        <v>1372</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -537,34 +537,34 @@
         <v>44525.375</v>
       </c>
       <c r="B3" t="n">
-        <v>71689000</v>
+        <v>9370</v>
       </c>
       <c r="C3" t="n">
-        <v>74136000</v>
+        <v>10590</v>
       </c>
       <c r="D3" t="n">
-        <v>71220000</v>
+        <v>8340</v>
       </c>
       <c r="E3" t="n">
-        <v>73171000</v>
+        <v>8910</v>
       </c>
       <c r="F3" t="n">
-        <v>9049.17474463</v>
+        <v>276140551.067176</v>
       </c>
       <c r="G3" t="n">
-        <v>658196555146.7008</v>
+        <v>2599763552287.856</v>
       </c>
       <c r="H3" t="n">
-        <v>1458000</v>
+        <v>900</v>
       </c>
       <c r="I3" t="n">
-        <v>72706500</v>
+        <v>10742</v>
       </c>
       <c r="J3" t="n">
-        <v>1.006388699772373</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.006388699772373</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -575,34 +575,34 @@
         <v>44526.375</v>
       </c>
       <c r="B4" t="n">
-        <v>73160000</v>
+        <v>8900</v>
       </c>
       <c r="C4" t="n">
-        <v>73567000</v>
+        <v>9665</v>
       </c>
       <c r="D4" t="n">
-        <v>68089000</v>
+        <v>8225</v>
       </c>
       <c r="E4" t="n">
-        <v>68549000</v>
+        <v>9000</v>
       </c>
       <c r="F4" t="n">
-        <v>12468.28912157</v>
+        <v>166353542.6278476</v>
       </c>
       <c r="G4" t="n">
-        <v>883496099720.3064</v>
+        <v>1502576655281.782</v>
       </c>
       <c r="H4" t="n">
-        <v>2739000</v>
+        <v>576</v>
       </c>
       <c r="I4" t="n">
-        <v>74618000</v>
+        <v>9800</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.006388699772373</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -613,34 +613,34 @@
         <v>44527.375</v>
       </c>
       <c r="B5" t="n">
-        <v>68550000</v>
+        <v>9025</v>
       </c>
       <c r="C5" t="n">
-        <v>70276000</v>
+        <v>9080</v>
       </c>
       <c r="D5" t="n">
-        <v>68140000</v>
+        <v>7950</v>
       </c>
       <c r="E5" t="n">
-        <v>70039000</v>
+        <v>8385</v>
       </c>
       <c r="F5" t="n">
-        <v>4865.73785339</v>
+        <v>93963941.47973742</v>
       </c>
       <c r="G5" t="n">
-        <v>338381741544.1163</v>
+        <v>791423010888.8473</v>
       </c>
       <c r="H5" t="n">
-        <v>1068000</v>
+        <v>452</v>
       </c>
       <c r="I5" t="n">
-        <v>71289000</v>
+        <v>9601</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.006388699772373</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -651,34 +651,34 @@
         <v>44528.375</v>
       </c>
       <c r="B6" t="n">
-        <v>70039000</v>
+        <v>8390</v>
       </c>
       <c r="C6" t="n">
-        <v>72691000</v>
+        <v>9590</v>
       </c>
       <c r="D6" t="n">
-        <v>68607000</v>
+        <v>7355</v>
       </c>
       <c r="E6" t="n">
-        <v>72303000</v>
+        <v>9495</v>
       </c>
       <c r="F6" t="n">
-        <v>5439.53030356</v>
+        <v>223866412.5825202</v>
       </c>
       <c r="G6" t="n">
-        <v>380943799247.1356</v>
+        <v>1906966819552.092</v>
       </c>
       <c r="H6" t="n">
-        <v>2042000</v>
+        <v>894</v>
       </c>
       <c r="I6" t="n">
-        <v>71107000</v>
+        <v>8842</v>
       </c>
       <c r="J6" t="n">
-        <v>1.016819722390201</v>
+        <v>1.073852069667496</v>
       </c>
       <c r="K6" t="n">
-        <v>1.023315878319179</v>
+        <v>1.073852069667496</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -689,34 +689,34 @@
         <v>44529.375</v>
       </c>
       <c r="B7" t="n">
-        <v>72255000</v>
+        <v>9495</v>
       </c>
       <c r="C7" t="n">
-        <v>73166000</v>
+        <v>9995</v>
       </c>
       <c r="D7" t="n">
-        <v>71298000</v>
+        <v>8675</v>
       </c>
       <c r="E7" t="n">
-        <v>72240000</v>
+        <v>8740</v>
       </c>
       <c r="F7" t="n">
-        <v>5965.74542692</v>
+        <v>164809441.6297483</v>
       </c>
       <c r="G7" t="n">
-        <v>431249801809.792</v>
+        <v>1535688846854.528</v>
       </c>
       <c r="H7" t="n">
-        <v>934000</v>
+        <v>528</v>
       </c>
       <c r="I7" t="n">
-        <v>74297000</v>
+        <v>10389</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.023315878319179</v>
+        <v>1.073852069667496</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -727,34 +727,34 @@
         <v>44530.375</v>
       </c>
       <c r="B8" t="n">
-        <v>72241000</v>
+        <v>8740</v>
       </c>
       <c r="C8" t="n">
-        <v>72480000</v>
+        <v>8965</v>
       </c>
       <c r="D8" t="n">
-        <v>70000000</v>
+        <v>8345</v>
       </c>
       <c r="E8" t="n">
-        <v>71200000</v>
+        <v>8575</v>
       </c>
       <c r="F8" t="n">
-        <v>3705.47619298</v>
+        <v>45436035.14132164</v>
       </c>
       <c r="G8" t="n">
-        <v>263373862353.7695</v>
+        <v>392269258823.9074</v>
       </c>
       <c r="H8" t="n">
-        <v>1240000</v>
+        <v>248</v>
       </c>
       <c r="I8" t="n">
-        <v>73175000</v>
+        <v>9268</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.023315878319179</v>
+        <v>1.073852069667496</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>

--- a/dd.xlsx
+++ b/dd.xlsx
@@ -501,25 +501,25 @@
         <v>44524.375</v>
       </c>
       <c r="B2" t="n">
-        <v>6675</v>
+        <v>251</v>
       </c>
       <c r="C2" t="n">
-        <v>9970</v>
+        <v>258</v>
       </c>
       <c r="D2" t="n">
-        <v>6540</v>
+        <v>242</v>
       </c>
       <c r="E2" t="n">
-        <v>9370</v>
+        <v>250</v>
       </c>
       <c r="F2" t="n">
-        <v>352356731.0719248</v>
+        <v>68817159.93673585</v>
       </c>
       <c r="G2" t="n">
-        <v>3018966463664.599</v>
+        <v>17075029361.08122</v>
       </c>
       <c r="H2" t="n">
-        <v>1372</v>
+        <v>1.6</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -537,34 +537,34 @@
         <v>44525.375</v>
       </c>
       <c r="B3" t="n">
-        <v>9370</v>
+        <v>250</v>
       </c>
       <c r="C3" t="n">
-        <v>10590</v>
+        <v>284</v>
       </c>
       <c r="D3" t="n">
-        <v>8340</v>
+        <v>247</v>
       </c>
       <c r="E3" t="n">
-        <v>8910</v>
+        <v>274</v>
       </c>
       <c r="F3" t="n">
-        <v>276140551.067176</v>
+        <v>310618723.5764807</v>
       </c>
       <c r="G3" t="n">
-        <v>2599763552287.856</v>
+        <v>82646065564.98457</v>
       </c>
       <c r="H3" t="n">
-        <v>900</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>10742</v>
+        <v>251.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>1.089030206677265</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>1.089030206677265</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -575,34 +575,34 @@
         <v>44526.375</v>
       </c>
       <c r="B4" t="n">
-        <v>8900</v>
+        <v>273</v>
       </c>
       <c r="C4" t="n">
-        <v>9665</v>
+        <v>276</v>
       </c>
       <c r="D4" t="n">
-        <v>8225</v>
+        <v>240</v>
       </c>
       <c r="E4" t="n">
-        <v>9000</v>
+        <v>256</v>
       </c>
       <c r="F4" t="n">
-        <v>166353542.6278476</v>
+        <v>116004742.4091015</v>
       </c>
       <c r="G4" t="n">
-        <v>1502576655281.782</v>
+        <v>30143731362.23814</v>
       </c>
       <c r="H4" t="n">
-        <v>576</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>9800</v>
+        <v>276.7</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>1.089030206677265</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -613,34 +613,34 @@
         <v>44527.375</v>
       </c>
       <c r="B5" t="n">
-        <v>9025</v>
+        <v>256</v>
       </c>
       <c r="C5" t="n">
-        <v>9080</v>
+        <v>267</v>
       </c>
       <c r="D5" t="n">
-        <v>7950</v>
+        <v>251</v>
       </c>
       <c r="E5" t="n">
-        <v>8385</v>
+        <v>267</v>
       </c>
       <c r="F5" t="n">
-        <v>93963941.47973742</v>
+        <v>49807294.80135948</v>
       </c>
       <c r="G5" t="n">
-        <v>791423010888.8473</v>
+        <v>12933844177.08308</v>
       </c>
       <c r="H5" t="n">
-        <v>452</v>
+        <v>1.6</v>
       </c>
       <c r="I5" t="n">
-        <v>9601</v>
+        <v>259.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>1.028505392912173</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>1.120073440611825</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -651,34 +651,34 @@
         <v>44528.375</v>
       </c>
       <c r="B6" t="n">
-        <v>8390</v>
+        <v>267</v>
       </c>
       <c r="C6" t="n">
-        <v>9590</v>
+        <v>267</v>
       </c>
       <c r="D6" t="n">
-        <v>7355</v>
+        <v>245</v>
       </c>
       <c r="E6" t="n">
-        <v>9495</v>
+        <v>256</v>
       </c>
       <c r="F6" t="n">
-        <v>223866412.5825202</v>
+        <v>40693742.0143067</v>
       </c>
       <c r="G6" t="n">
-        <v>1906966819552.092</v>
+        <v>10382480337.62664</v>
       </c>
       <c r="H6" t="n">
-        <v>894</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>8842</v>
+        <v>268.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.073852069667496</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.073852069667496</v>
+        <v>1.120073440611825</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -689,34 +689,34 @@
         <v>44529.375</v>
       </c>
       <c r="B7" t="n">
-        <v>9495</v>
+        <v>256</v>
       </c>
       <c r="C7" t="n">
-        <v>9995</v>
+        <v>263</v>
       </c>
       <c r="D7" t="n">
-        <v>8675</v>
+        <v>252</v>
       </c>
       <c r="E7" t="n">
-        <v>8740</v>
+        <v>259</v>
       </c>
       <c r="F7" t="n">
-        <v>164809441.6297483</v>
+        <v>38547617.34123788</v>
       </c>
       <c r="G7" t="n">
-        <v>1535688846854.528</v>
+        <v>9909208733.42277</v>
       </c>
       <c r="H7" t="n">
-        <v>528</v>
+        <v>1.1</v>
       </c>
       <c r="I7" t="n">
-        <v>10389</v>
+        <v>258.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>1.003098373353989</v>
       </c>
       <c r="K7" t="n">
-        <v>1.073852069667496</v>
+        <v>1.123543846314728</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -727,37 +727,37 @@
         <v>44530.375</v>
       </c>
       <c r="B8" t="n">
-        <v>8740</v>
+        <v>259</v>
       </c>
       <c r="C8" t="n">
-        <v>8965</v>
+        <v>263</v>
       </c>
       <c r="D8" t="n">
-        <v>8345</v>
+        <v>247</v>
       </c>
       <c r="E8" t="n">
-        <v>8575</v>
+        <v>255</v>
       </c>
       <c r="F8" t="n">
-        <v>45436035.14132164</v>
+        <v>35810661.0964519</v>
       </c>
       <c r="G8" t="n">
-        <v>392269258823.9074</v>
+        <v>9141811731.486032</v>
       </c>
       <c r="H8" t="n">
-        <v>248</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
-        <v>9268</v>
+        <v>260.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="K8" t="n">
-        <v>1.073852069667496</v>
+        <v>1.101513574818361</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.960784313725486</v>
       </c>
     </row>
   </sheetData>

--- a/dd.xlsx
+++ b/dd.xlsx
@@ -498,28 +498,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44524.375</v>
+        <v>44525.375</v>
       </c>
       <c r="B2" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" t="n">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D2" t="n">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E2" t="n">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="F2" t="n">
-        <v>68817159.93673585</v>
+        <v>310618723.5764807</v>
       </c>
       <c r="G2" t="n">
-        <v>17075029361.08122</v>
+        <v>82646065564.98457</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6</v>
+        <v>5.55</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -534,37 +534,37 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44525.375</v>
+        <v>44526.375</v>
       </c>
       <c r="B3" t="n">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C3" t="n">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D3" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E3" t="n">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F3" t="n">
-        <v>310618723.5764807</v>
+        <v>116004742.4091015</v>
       </c>
       <c r="G3" t="n">
-        <v>82646065564.98457</v>
+        <v>30143731362.23814</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>251.6</v>
+        <v>278.55</v>
       </c>
       <c r="J3" t="n">
-        <v>1.089030206677265</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.089030206677265</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -572,37 +572,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44526.375</v>
+        <v>44527.375</v>
       </c>
       <c r="B4" t="n">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C4" t="n">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D4" t="n">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F4" t="n">
-        <v>116004742.4091015</v>
+        <v>49807294.80135948</v>
       </c>
       <c r="G4" t="n">
-        <v>30143731362.23814</v>
+        <v>12933844177.08308</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
-        <v>276.7</v>
+        <v>261.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>1.021423106350421</v>
       </c>
       <c r="K4" t="n">
-        <v>1.089030206677265</v>
+        <v>1.021423106350421</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -610,37 +610,37 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44527.375</v>
+        <v>44528.375</v>
       </c>
       <c r="B5" t="n">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C5" t="n">
         <v>267</v>
       </c>
       <c r="D5" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E5" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F5" t="n">
-        <v>49807294.80135948</v>
+        <v>40693742.0143067</v>
       </c>
       <c r="G5" t="n">
-        <v>12933844177.08308</v>
+        <v>10382480337.62664</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>259.6</v>
+        <v>269.4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.028505392912173</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.120073440611825</v>
+        <v>1.021423106350421</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -648,116 +648,116 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44528.375</v>
+        <v>44529.375</v>
       </c>
       <c r="B6" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C6" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D6" t="n">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E6" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F6" t="n">
-        <v>40693742.0143067</v>
+        <v>38547617.34123788</v>
       </c>
       <c r="G6" t="n">
-        <v>10382480337.62664</v>
+        <v>9909208733.42277</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="I6" t="n">
-        <v>268.6</v>
+        <v>259.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.9988430389510219</v>
       </c>
       <c r="K6" t="n">
-        <v>1.120073440611825</v>
+        <v>1.020241359601847</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.1156961048978188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44529.375</v>
+        <v>44530.375</v>
       </c>
       <c r="B7" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
         <v>263</v>
       </c>
       <c r="D7" t="n">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E7" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F7" t="n">
-        <v>38547617.34123788</v>
+        <v>43828696.82200172</v>
       </c>
       <c r="G7" t="n">
-        <v>9909208733.42277</v>
+        <v>11175552656.21593</v>
       </c>
       <c r="H7" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
-        <v>258.2</v>
+        <v>260.65</v>
       </c>
       <c r="J7" t="n">
-        <v>1.003098373353989</v>
+        <v>0.9629771724534818</v>
       </c>
       <c r="K7" t="n">
-        <v>1.123543846314728</v>
+        <v>0.9824691396894827</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.813695462610204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44530.375</v>
+        <v>44531.375</v>
       </c>
       <c r="B8" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C8" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D8" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E8" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F8" t="n">
-        <v>35810661.0964519</v>
+        <v>34871955.33353011</v>
       </c>
       <c r="G8" t="n">
-        <v>9141811731.486032</v>
+        <v>8931928236.958509</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="I8" t="n">
-        <v>260.1</v>
+        <v>253.4</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9803921568627451</v>
+        <v>1.01026045777427</v>
       </c>
       <c r="K8" t="n">
-        <v>1.101513574818361</v>
+        <v>0.99254972281179</v>
       </c>
       <c r="L8" t="n">
-        <v>1.960784313725486</v>
+        <v>2.826779946441242</v>
       </c>
     </row>
   </sheetData>
